--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -547,87 +547,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>392601</v>
+        <v>56018</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>74604</v>
+        <v>34244</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>33050</v>
+        <v>442178</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>59673</v>
+        <v>77849</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>107862</v>
+        <v>59673</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -635,18 +631,18 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>56018</v>
+        <v>113652</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -547,83 +547,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>56018</v>
+        <v>445055</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>34244</v>
+        <v>77849</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>442178</v>
+        <v>34244</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>77849</v>
+        <v>59673</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -631,18 +635,18 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,30 +547,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>449371</v>
+        <v>11128</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>77999</v>
+        <v>486214</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
@@ -578,37 +576,37 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>34244</v>
+        <v>79953</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>59673</v>
+        <v>35355</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
@@ -616,18 +614,18 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>113652</v>
+        <v>65425</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -635,18 +633,18 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>56018</v>
+        <v>117653</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -654,15 +652,34 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>56018</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,164 +519,935 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D12" t="n">
+        <v>582</v>
+      </c>
+      <c r="E12" t="n">
+        <v>594</v>
+      </c>
+      <c r="F12" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C15" t="n">
+        <v>898</v>
+      </c>
+      <c r="D15" t="n">
+        <v>303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>412</v>
+      </c>
+      <c r="F15" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D16" t="n">
+        <v>507</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F16" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D17" t="n">
+        <v>583</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C18" t="n">
+        <v>421</v>
+      </c>
+      <c r="D18" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" t="n">
+        <v>390</v>
+      </c>
+      <c r="F18" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C20" t="n">
+        <v>445</v>
+      </c>
+      <c r="D20" t="n">
+        <v>530</v>
+      </c>
+      <c r="E20" t="n">
+        <v>410</v>
+      </c>
+      <c r="F20" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E21" t="n">
+        <v>959</v>
+      </c>
+      <c r="F21" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C22" t="n">
+        <v>191</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>247</v>
+      </c>
+      <c r="F22" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D23" t="n">
+        <v>656</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C25" t="n">
+        <v>428</v>
+      </c>
+      <c r="D25" t="n">
+        <v>216</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F25" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C26" t="n">
+        <v>66</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>68</v>
+      </c>
+      <c r="F26" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C27" t="n">
+        <v>93</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>153</v>
+      </c>
+      <c r="F27" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C28" t="n">
+        <v>468</v>
+      </c>
+      <c r="D28" t="n">
+        <v>178</v>
+      </c>
+      <c r="E28" t="n">
+        <v>568</v>
+      </c>
+      <c r="F28" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>72</v>
+      </c>
+      <c r="F29" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B31" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" t="n">
         <v>56018</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>151</v>
+      </c>
+      <c r="F32" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Salinas_driver_summary.xlsx
@@ -573,23 +573,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C12" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E12" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F12" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -606,30 +606,30 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C13" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D13" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E13" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F13" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -646,30 +646,30 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C14" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D14" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E14" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F14" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C15" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D15" t="n">
         <v>303</v>
       </c>
       <c r="E15" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F15" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -733,23 +733,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733616</v>
+        <v>381616</v>
       </c>
       <c r="C16" t="n">
-        <v>1647</v>
+        <v>1106</v>
       </c>
       <c r="D16" t="n">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="E16" t="n">
-        <v>1266</v>
+        <v>601</v>
       </c>
       <c r="F16" t="n">
-        <v>735770</v>
+        <v>383304</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -758,38 +758,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1159949</v>
+        <v>335610</v>
       </c>
       <c r="C17" t="n">
-        <v>2346</v>
+        <v>495</v>
       </c>
       <c r="D17" t="n">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="E17" t="n">
-        <v>1850</v>
+        <v>414</v>
       </c>
       <c r="F17" t="n">
-        <v>1162878</v>
+        <v>336635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -806,30 +806,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192287</v>
+        <v>750778</v>
       </c>
       <c r="C18" t="n">
-        <v>421</v>
+        <v>1655</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>507</v>
       </c>
       <c r="E18" t="n">
-        <v>390</v>
+        <v>1290</v>
       </c>
       <c r="F18" t="n">
-        <v>192778</v>
+        <v>752940</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -846,30 +846,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1499724</v>
+        <v>1021828</v>
       </c>
       <c r="C19" t="n">
-        <v>4069</v>
+        <v>2379</v>
       </c>
       <c r="D19" t="n">
-        <v>1136</v>
+        <v>1006</v>
       </c>
       <c r="E19" t="n">
-        <v>2789</v>
+        <v>1021</v>
       </c>
       <c r="F19" t="n">
-        <v>1504929</v>
+        <v>1025213</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -886,30 +886,30 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>330685</v>
+        <v>100380</v>
       </c>
       <c r="C20" t="n">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="D20" t="n">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>410</v>
+        <v>267</v>
       </c>
       <c r="F20" t="n">
-        <v>331660</v>
+        <v>100674</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -926,30 +926,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938125</v>
+        <v>195464</v>
       </c>
       <c r="C21" t="n">
-        <v>2222</v>
+        <v>430</v>
       </c>
       <c r="D21" t="n">
-        <v>1006</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>959</v>
+        <v>401</v>
       </c>
       <c r="F21" t="n">
-        <v>941353</v>
+        <v>195964</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -966,30 +966,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95095</v>
+        <v>1833336</v>
       </c>
       <c r="C22" t="n">
-        <v>191</v>
+        <v>2376</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>656</v>
       </c>
       <c r="E22" t="n">
-        <v>247</v>
+        <v>1899</v>
       </c>
       <c r="F22" t="n">
-        <v>95316</v>
+        <v>1836368</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1006,30 +1006,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731609</v>
+        <v>1237156</v>
       </c>
       <c r="C23" t="n">
-        <v>2149</v>
+        <v>2499</v>
       </c>
       <c r="D23" t="n">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="E23" t="n">
-        <v>1812</v>
+        <v>1951</v>
       </c>
       <c r="F23" t="n">
-        <v>1734414</v>
+        <v>1240238</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1046,30 +1046,30 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1296766</v>
+        <v>63994</v>
       </c>
       <c r="C24" t="n">
-        <v>1864</v>
+        <v>66</v>
       </c>
       <c r="D24" t="n">
-        <v>1075</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>2887</v>
+        <v>68</v>
       </c>
       <c r="F24" t="n">
-        <v>1299705</v>
+        <v>64101</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1086,30 +1086,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>389283</v>
+        <v>81417</v>
       </c>
       <c r="C25" t="n">
-        <v>428</v>
+        <v>107</v>
       </c>
       <c r="D25" t="n">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>1233</v>
+        <v>158</v>
       </c>
       <c r="F25" t="n">
-        <v>389927</v>
+        <v>81549</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1126,30 +1126,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63994</v>
+        <v>1400496</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>2029</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>1075</v>
       </c>
       <c r="E26" t="n">
-        <v>68</v>
+        <v>3210</v>
       </c>
       <c r="F26" t="n">
-        <v>64101</v>
+        <v>1403600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1166,30 +1166,30 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79835</v>
+        <v>393045</v>
       </c>
       <c r="C27" t="n">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="E27" t="n">
-        <v>153</v>
+        <v>1251</v>
       </c>
       <c r="F27" t="n">
-        <v>79953</v>
+        <v>393714</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1198,15 +1198,15 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>485568</v>
+        <v>509717</v>
       </c>
       <c r="C28" t="n">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="D28" t="n">
         <v>178</v>
       </c>
       <c r="E28" t="n">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F28" t="n">
-        <v>486214</v>
+        <v>510417</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1253,23 +1253,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65422</v>
+        <v>11362</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>65425</v>
+        <v>11369</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1278,38 +1278,36 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>100</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11124</v>
+        <v>75454</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F30" t="n">
-        <v>11128</v>
+        <v>75457</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1318,14 +1316,16 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>100</v>
       </c>
-      <c r="J30" t="n">
-        <v/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1375,19 +1375,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>117615</v>
+        <v>121310</v>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F32" t="n">
-        <v>117653</v>
+        <v>121350</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35341</v>
+        <v>35363</v>
       </c>
       <c r="C33" t="n">
         <v>11</v>
@@ -1424,10 +1424,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" t="n">
-        <v>35355</v>
+        <v>35377</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
